--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,99 +40,120 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>lowest</t>
   </si>
   <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>cut</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>cut</t>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -142,34 +163,61 @@
     <t>oil</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>special</t>
@@ -178,97 +226,100 @@
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>god</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>care</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>helping</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
   <si>
     <t>corona</t>
@@ -629,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,10 +688,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,13 +749,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8421052631578947</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -716,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -748,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8157894736842105</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -766,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -790,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -798,13 +849,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8047945205479452</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -816,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -840,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -848,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7941176470588235</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -866,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -890,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -898,7 +949,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7837837837837838</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
         <v>29</v>
@@ -916,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0.8484848484848485</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -940,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -948,13 +999,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7777777777777778</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -966,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,13 +1049,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1016,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>0.8276762402088773</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>317</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>317</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1040,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,13 +1099,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7333333333333333</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1066,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8067885117493473</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1090,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1098,13 +1149,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7307692307692307</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1116,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1140,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1148,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7241379310344828</v>
+        <v>0.68</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,16 +1220,16 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1190,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1198,13 +1249,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6086956521739131</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1216,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>0.7924528301886793</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L13">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1240,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,13 +1299,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6078431372549019</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1266,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K14">
-        <v>0.7890625</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L14">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="M14">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1290,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1298,7 +1349,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -1316,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="K15">
-        <v>0.7887323943661971</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L15">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="M15">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1340,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1348,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5652173913043478</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1366,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>0.7674418604651163</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1390,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1398,13 +1449,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5423728813559322</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1416,19 +1467,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1440,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1448,13 +1499,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5396825396825397</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C18">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1466,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>0.75625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1490,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1498,13 +1549,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5348837209302325</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C19">
-        <v>276</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>276</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1516,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1540,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1548,13 +1599,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5128205128205128</v>
+        <v>0.5368217054263565</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>277</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>277</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1566,19 +1617,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1590,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1598,13 +1649,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4838709677419355</v>
+        <v>0.5343915343915344</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1616,19 +1667,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1640,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1648,37 +1699,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4832214765100671</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>14</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D22">
-        <v>72</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>77</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1690,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1698,13 +1749,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.45</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1716,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K23">
-        <v>0.6411764705882353</v>
+        <v>0.725</v>
       </c>
       <c r="L23">
-        <v>218</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>218</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1740,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>122</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1748,13 +1799,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4358974358974359</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1766,19 +1817,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1790,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1798,13 +1849,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4333333333333333</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1816,19 +1867,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>0.5815899581589958</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L25">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1840,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1848,13 +1899,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4193548387096774</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1866,19 +1917,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K26">
-        <v>0.575</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1890,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1898,13 +1949,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1916,31 +1967,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K27">
-        <v>0.5748299319727891</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L27">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="M27">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1948,13 +1999,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3928571428571428</v>
+        <v>0.475</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1966,19 +2017,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K28">
-        <v>0.5714285714285714</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1990,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1998,13 +2049,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3636363636363636</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2016,19 +2067,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K29">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2040,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2048,13 +2099,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3090909090909091</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2066,19 +2117,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K30">
-        <v>0.5571428571428572</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2090,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2098,13 +2149,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2116,19 +2167,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K31">
-        <v>0.5531914893617021</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L31">
-        <v>52</v>
+        <v>218</v>
       </c>
       <c r="M31">
-        <v>52</v>
+        <v>218</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2140,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2148,13 +2199,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2619047619047619</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C32">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2166,19 +2217,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K32">
-        <v>0.5428571428571428</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2190,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2198,13 +2249,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2077922077922078</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2216,19 +2267,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2240,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2248,13 +2299,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.175</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2266,19 +2317,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K34">
-        <v>0.4943820224719101</v>
+        <v>0.5966101694915255</v>
       </c>
       <c r="L34">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="M34">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2290,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>45</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2298,13 +2349,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1554959785522788</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C35">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2316,19 +2367,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>315</v>
+        <v>38</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K35">
-        <v>0.4242424242424243</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2340,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2348,13 +2399,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.05666666666666666</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2366,19 +2417,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>283</v>
+        <v>39</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K36">
-        <v>0.4047619047619048</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2390,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2398,37 +2449,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.007412181759587496</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E37">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>3080</v>
+        <v>38</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K37">
-        <v>0.3835616438356164</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L37">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2440,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2448,179 +2499,605 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006074766355140187</v>
+        <v>0.25</v>
       </c>
       <c r="C38">
+        <v>63</v>
+      </c>
+      <c r="D38">
+        <v>63</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>189</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K38">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L38">
+        <v>14</v>
+      </c>
+      <c r="M38">
+        <v>14</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.2337662337662338</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>59</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39">
+        <v>0.5538461538461539</v>
+      </c>
+      <c r="L39">
+        <v>36</v>
+      </c>
+      <c r="M39">
+        <v>36</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>70</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K40">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="L40">
+        <v>46</v>
+      </c>
+      <c r="M40">
+        <v>46</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.175</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>66</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41">
+        <v>0.5</v>
+      </c>
+      <c r="L41">
+        <v>14</v>
+      </c>
+      <c r="M41">
+        <v>14</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.1554959785522788</v>
+      </c>
+      <c r="C42">
+        <v>58</v>
+      </c>
+      <c r="D42">
+        <v>58</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>315</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K42">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L42">
+        <v>20</v>
+      </c>
+      <c r="M42">
+        <v>20</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.06</v>
+      </c>
+      <c r="C43">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>282</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K43">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L43">
         <v>13</v>
       </c>
-      <c r="D38">
+      <c r="M43">
+        <v>13</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.01119724375538329</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>13</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1148</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44">
+        <v>0.4509803921568628</v>
+      </c>
+      <c r="L44">
+        <v>23</v>
+      </c>
+      <c r="M44">
+        <v>23</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.009817671809256662</v>
+      </c>
+      <c r="C45">
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <v>25</v>
+      </c>
+      <c r="E45">
+        <v>0.16</v>
+      </c>
+      <c r="F45">
+        <v>0.84</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2118</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K45">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="L45">
+        <v>19</v>
+      </c>
+      <c r="M45">
+        <v>19</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.008704061895551257</v>
+      </c>
+      <c r="C46">
+        <v>27</v>
+      </c>
+      <c r="D46">
+        <v>32</v>
+      </c>
+      <c r="E46">
+        <v>0.16</v>
+      </c>
+      <c r="F46">
+        <v>0.84</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>3075</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K46">
+        <v>0.3220338983050847</v>
+      </c>
+      <c r="L46">
+        <v>19</v>
+      </c>
+      <c r="M46">
+        <v>19</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K47">
+        <v>0.3125</v>
+      </c>
+      <c r="L47">
+        <v>20</v>
+      </c>
+      <c r="M47">
+        <v>20</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K48">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="L48">
+        <v>24</v>
+      </c>
+      <c r="M48">
+        <v>24</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K49">
+        <v>0.3013698630136986</v>
+      </c>
+      <c r="L49">
+        <v>22</v>
+      </c>
+      <c r="M49">
+        <v>22</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K50">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="L50">
         <v>16</v>
       </c>
-      <c r="E38">
-        <v>0.19</v>
-      </c>
-      <c r="F38">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>2127</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K38">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="L38">
-        <v>18</v>
-      </c>
-      <c r="M38">
-        <v>18</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K39">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="L39">
+      <c r="M50">
+        <v>17</v>
+      </c>
+      <c r="N50">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O50">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K51">
+        <v>0.07567567567567568</v>
+      </c>
+      <c r="L51">
         <v>14</v>
       </c>
-      <c r="M39">
+      <c r="M51">
         <v>14</v>
       </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K40">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="L40">
-        <v>24</v>
-      </c>
-      <c r="M40">
-        <v>24</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K41">
-        <v>0.296875</v>
-      </c>
-      <c r="L41">
-        <v>19</v>
-      </c>
-      <c r="M41">
-        <v>19</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K42">
-        <v>0.2203389830508475</v>
-      </c>
-      <c r="L42">
-        <v>13</v>
-      </c>
-      <c r="M42">
-        <v>13</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K43">
-        <v>0.005950516755402443</v>
-      </c>
-      <c r="L43">
-        <v>19</v>
-      </c>
-      <c r="M43">
-        <v>27</v>
-      </c>
-      <c r="N43">
-        <v>0.7</v>
-      </c>
-      <c r="O43">
-        <v>0.3</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>3174</v>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K52">
+        <v>0.00438871473354232</v>
+      </c>
+      <c r="L52">
+        <v>14</v>
+      </c>
+      <c r="M52">
+        <v>25</v>
+      </c>
+      <c r="N52">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O52">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>3176</v>
       </c>
     </row>
   </sheetData>
